--- a/static/COGU_20250419.xlsx
+++ b/static/COGU_20250419.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ogahserge/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ogahserge/Documents/coguMSHP/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC5941C-8A50-504C-859A-DF8D5B71C255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA02FBAB-B5C7-D042-8040-A211BE17F588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{BE6AB5C7-6F4B-CC4A-9C84-4A8C4122BB8B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{BE6AB5C7-6F4B-CC4A-9C84-4A8C4122BB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -6222,8 +6222,8 @@
   <dimension ref="A1:I367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C202" sqref="C202:C208"/>
+      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B376" sqref="B376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12111,7 +12111,9 @@
       </c>
     </row>
     <row r="218" spans="1:9">
-      <c r="A218" s="22"/>
+      <c r="A218" s="22">
+        <v>45766</v>
+      </c>
       <c r="B218" s="3" t="s">
         <v>7</v>
       </c>
@@ -12134,7 +12136,9 @@
       <c r="I218" s="19"/>
     </row>
     <row r="219" spans="1:9">
-      <c r="A219" s="22"/>
+      <c r="A219" s="22">
+        <v>45766</v>
+      </c>
       <c r="B219" s="3" t="s">
         <v>7</v>
       </c>
@@ -12157,7 +12161,9 @@
       <c r="I219" s="19"/>
     </row>
     <row r="220" spans="1:9">
-      <c r="A220" s="22"/>
+      <c r="A220" s="22">
+        <v>45766</v>
+      </c>
       <c r="B220" s="3" t="s">
         <v>7</v>
       </c>
@@ -12180,7 +12186,9 @@
       <c r="I220" s="19"/>
     </row>
     <row r="221" spans="1:9">
-      <c r="A221" s="22"/>
+      <c r="A221" s="22">
+        <v>45766</v>
+      </c>
       <c r="B221" s="3" t="s">
         <v>7</v>
       </c>
@@ -12203,7 +12211,9 @@
       <c r="I221" s="19"/>
     </row>
     <row r="222" spans="1:9">
-      <c r="A222" s="22"/>
+      <c r="A222" s="22">
+        <v>45766</v>
+      </c>
       <c r="B222" s="3" t="s">
         <v>7</v>
       </c>
@@ -12226,7 +12236,9 @@
       <c r="I222" s="19"/>
     </row>
     <row r="223" spans="1:9">
-      <c r="A223" s="22"/>
+      <c r="A223" s="22">
+        <v>45766</v>
+      </c>
       <c r="B223" s="3" t="s">
         <v>7</v>
       </c>
@@ -12249,7 +12261,9 @@
       <c r="I223" s="19"/>
     </row>
     <row r="224" spans="1:9">
-      <c r="A224" s="22"/>
+      <c r="A224" s="22">
+        <v>45766</v>
+      </c>
       <c r="B224" s="3" t="s">
         <v>7</v>
       </c>
@@ -12272,7 +12286,9 @@
       <c r="I224" s="19"/>
     </row>
     <row r="225" spans="1:9">
-      <c r="A225" s="22"/>
+      <c r="A225" s="22">
+        <v>45766</v>
+      </c>
       <c r="B225" s="3" t="s">
         <v>7</v>
       </c>
@@ -12295,7 +12311,9 @@
       <c r="I225" s="19"/>
     </row>
     <row r="226" spans="1:9">
-      <c r="A226" s="22"/>
+      <c r="A226" s="22">
+        <v>45766</v>
+      </c>
       <c r="B226" s="3" t="s">
         <v>7</v>
       </c>
@@ -12318,7 +12336,9 @@
       <c r="I226" s="19"/>
     </row>
     <row r="227" spans="1:9">
-      <c r="A227" s="22"/>
+      <c r="A227" s="22">
+        <v>45766</v>
+      </c>
       <c r="B227" s="3" t="s">
         <v>7</v>
       </c>
@@ -12341,7 +12361,9 @@
       <c r="I227" s="19"/>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="22"/>
+      <c r="A228" s="22">
+        <v>45766</v>
+      </c>
       <c r="B228" s="3" t="s">
         <v>7</v>
       </c>
@@ -12364,7 +12386,9 @@
       <c r="I228" s="19"/>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="22"/>
+      <c r="A229" s="22">
+        <v>45766</v>
+      </c>
       <c r="B229" s="3" t="s">
         <v>7</v>
       </c>
@@ -12387,7 +12411,9 @@
       <c r="I229" s="19"/>
     </row>
     <row r="230" spans="1:9">
-      <c r="A230" s="22"/>
+      <c r="A230" s="22">
+        <v>45766</v>
+      </c>
       <c r="B230" t="s">
         <v>148</v>
       </c>
@@ -12410,7 +12436,9 @@
       <c r="I230" s="19"/>
     </row>
     <row r="231" spans="1:9">
-      <c r="A231" s="22"/>
+      <c r="A231" s="22">
+        <v>45766</v>
+      </c>
       <c r="B231" s="21" t="s">
         <v>111</v>
       </c>
@@ -12433,7 +12461,9 @@
       <c r="I231" s="19"/>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="22"/>
+      <c r="A232" s="22">
+        <v>45766</v>
+      </c>
       <c r="B232" s="3" t="s">
         <v>7</v>
       </c>
@@ -12456,7 +12486,9 @@
       <c r="I232" s="19"/>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="22"/>
+      <c r="A233" s="22">
+        <v>45766</v>
+      </c>
       <c r="B233" s="3" t="s">
         <v>7</v>
       </c>
@@ -12479,7 +12511,9 @@
       <c r="I233" s="19"/>
     </row>
     <row r="234" spans="1:9">
-      <c r="A234" s="22"/>
+      <c r="A234" s="22">
+        <v>45766</v>
+      </c>
       <c r="B234" s="21" t="s">
         <v>111</v>
       </c>
@@ -12502,7 +12536,9 @@
       <c r="I234" s="19"/>
     </row>
     <row r="235" spans="1:9">
-      <c r="A235" s="22"/>
+      <c r="A235" s="22">
+        <v>45766</v>
+      </c>
       <c r="B235" s="3" t="s">
         <v>7</v>
       </c>
@@ -12525,7 +12561,9 @@
       <c r="I235" s="19"/>
     </row>
     <row r="236" spans="1:9">
-      <c r="A236" s="22"/>
+      <c r="A236" s="22">
+        <v>45766</v>
+      </c>
       <c r="B236" s="3" t="s">
         <v>7</v>
       </c>
@@ -12548,7 +12586,9 @@
       <c r="I236" s="19"/>
     </row>
     <row r="237" spans="1:9">
-      <c r="A237" s="22"/>
+      <c r="A237" s="22">
+        <v>45766</v>
+      </c>
       <c r="B237" s="3" t="s">
         <v>7</v>
       </c>
@@ -12571,7 +12611,9 @@
       <c r="I237" s="19"/>
     </row>
     <row r="238" spans="1:9">
-      <c r="A238" s="22"/>
+      <c r="A238" s="22">
+        <v>45766</v>
+      </c>
       <c r="B238" s="3" t="s">
         <v>7</v>
       </c>
@@ -12594,7 +12636,9 @@
       <c r="I238" s="19"/>
     </row>
     <row r="239" spans="1:9">
-      <c r="A239" s="22"/>
+      <c r="A239" s="22">
+        <v>45766</v>
+      </c>
       <c r="B239" s="3" t="s">
         <v>7</v>
       </c>
@@ -12617,7 +12661,9 @@
       <c r="I239" s="19"/>
     </row>
     <row r="240" spans="1:9">
-      <c r="A240" s="22"/>
+      <c r="A240" s="22">
+        <v>45766</v>
+      </c>
       <c r="B240" s="3" t="s">
         <v>7</v>
       </c>
@@ -12640,7 +12686,9 @@
       <c r="I240" s="19"/>
     </row>
     <row r="241" spans="1:9">
-      <c r="A241" s="22"/>
+      <c r="A241" s="22">
+        <v>45766</v>
+      </c>
       <c r="B241" s="3" t="s">
         <v>7</v>
       </c>
@@ -12663,7 +12711,9 @@
       <c r="I241" s="19"/>
     </row>
     <row r="242" spans="1:9">
-      <c r="A242" s="22"/>
+      <c r="A242" s="22">
+        <v>45766</v>
+      </c>
       <c r="B242" s="3" t="s">
         <v>7</v>
       </c>
@@ -12686,7 +12736,9 @@
       <c r="I242" s="19"/>
     </row>
     <row r="243" spans="1:9">
-      <c r="A243" s="22"/>
+      <c r="A243" s="22">
+        <v>45766</v>
+      </c>
       <c r="B243" s="3" t="s">
         <v>7</v>
       </c>
@@ -12709,7 +12761,9 @@
       <c r="I243" s="19"/>
     </row>
     <row r="244" spans="1:9">
-      <c r="A244" s="22"/>
+      <c r="A244" s="22">
+        <v>45766</v>
+      </c>
       <c r="B244" s="3" t="s">
         <v>7</v>
       </c>
@@ -12732,7 +12786,9 @@
       <c r="I244" s="19"/>
     </row>
     <row r="245" spans="1:9">
-      <c r="A245" s="22"/>
+      <c r="A245" s="22">
+        <v>45766</v>
+      </c>
       <c r="B245" s="3" t="s">
         <v>147</v>
       </c>
@@ -12755,7 +12811,9 @@
       <c r="I245" s="19"/>
     </row>
     <row r="246" spans="1:9">
-      <c r="A246" s="22"/>
+      <c r="A246" s="22">
+        <v>45766</v>
+      </c>
       <c r="B246" s="3" t="s">
         <v>7</v>
       </c>
@@ -12778,7 +12836,9 @@
       <c r="I246" s="19"/>
     </row>
     <row r="247" spans="1:9">
-      <c r="A247" s="22"/>
+      <c r="A247" s="22">
+        <v>45766</v>
+      </c>
       <c r="B247" s="3" t="s">
         <v>7</v>
       </c>
@@ -12801,7 +12861,9 @@
       <c r="I247" s="19"/>
     </row>
     <row r="248" spans="1:9">
-      <c r="A248" s="22"/>
+      <c r="A248" s="22">
+        <v>45766</v>
+      </c>
       <c r="B248" s="3" t="s">
         <v>7</v>
       </c>
@@ -12824,7 +12886,9 @@
       <c r="I248" s="19"/>
     </row>
     <row r="249" spans="1:9">
-      <c r="A249" s="22"/>
+      <c r="A249" s="22">
+        <v>45766</v>
+      </c>
       <c r="B249" s="3" t="s">
         <v>7</v>
       </c>
@@ -12847,7 +12911,9 @@
       <c r="I249" s="19"/>
     </row>
     <row r="250" spans="1:9">
-      <c r="A250" s="22"/>
+      <c r="A250" s="22">
+        <v>45766</v>
+      </c>
       <c r="B250" s="3" t="s">
         <v>7</v>
       </c>
@@ -12870,7 +12936,9 @@
       <c r="I250" s="19"/>
     </row>
     <row r="251" spans="1:9">
-      <c r="A251" s="22"/>
+      <c r="A251" s="22">
+        <v>45766</v>
+      </c>
       <c r="B251" s="3" t="s">
         <v>7</v>
       </c>
@@ -12893,7 +12961,9 @@
       <c r="I251" s="19"/>
     </row>
     <row r="252" spans="1:9">
-      <c r="A252" s="22"/>
+      <c r="A252" s="22">
+        <v>45766</v>
+      </c>
       <c r="B252" s="3" t="s">
         <v>7</v>
       </c>
@@ -12916,7 +12986,9 @@
       <c r="I252" s="19"/>
     </row>
     <row r="253" spans="1:9">
-      <c r="A253" s="22"/>
+      <c r="A253" s="22">
+        <v>45766</v>
+      </c>
       <c r="B253" s="3" t="s">
         <v>7</v>
       </c>
@@ -12939,7 +13011,9 @@
       <c r="I253" s="19"/>
     </row>
     <row r="254" spans="1:9">
-      <c r="A254" s="22"/>
+      <c r="A254" s="22">
+        <v>45766</v>
+      </c>
       <c r="B254" s="3" t="s">
         <v>7</v>
       </c>
@@ -12962,7 +13036,9 @@
       <c r="I254" s="19"/>
     </row>
     <row r="255" spans="1:9">
-      <c r="A255" s="22"/>
+      <c r="A255" s="22">
+        <v>45766</v>
+      </c>
       <c r="B255" s="3" t="s">
         <v>7</v>
       </c>
@@ -12985,7 +13061,9 @@
       <c r="I255" s="19"/>
     </row>
     <row r="256" spans="1:9">
-      <c r="A256" s="22"/>
+      <c r="A256" s="22">
+        <v>45766</v>
+      </c>
       <c r="B256" s="3" t="s">
         <v>7</v>
       </c>
@@ -13008,7 +13086,9 @@
       <c r="I256" s="19"/>
     </row>
     <row r="257" spans="1:9">
-      <c r="A257" s="22"/>
+      <c r="A257" s="22">
+        <v>45766</v>
+      </c>
       <c r="B257" s="3" t="s">
         <v>7</v>
       </c>
@@ -13031,7 +13111,9 @@
       <c r="I257" s="19"/>
     </row>
     <row r="258" spans="1:9">
-      <c r="A258" s="22"/>
+      <c r="A258" s="22">
+        <v>45766</v>
+      </c>
       <c r="B258" s="3" t="s">
         <v>7</v>
       </c>
@@ -13054,7 +13136,9 @@
       <c r="I258" s="19"/>
     </row>
     <row r="259" spans="1:9">
-      <c r="A259" s="22"/>
+      <c r="A259" s="22">
+        <v>45766</v>
+      </c>
       <c r="B259" s="3" t="s">
         <v>7</v>
       </c>
@@ -13077,7 +13161,9 @@
       <c r="I259" s="19"/>
     </row>
     <row r="260" spans="1:9">
-      <c r="A260" s="22"/>
+      <c r="A260" s="22">
+        <v>45766</v>
+      </c>
       <c r="B260" s="3" t="s">
         <v>7</v>
       </c>
@@ -13100,7 +13186,9 @@
       <c r="I260" s="19"/>
     </row>
     <row r="261" spans="1:9">
-      <c r="A261" s="22"/>
+      <c r="A261" s="22">
+        <v>45766</v>
+      </c>
       <c r="B261" s="3" t="s">
         <v>7</v>
       </c>
@@ -13123,7 +13211,9 @@
       <c r="I261" s="19"/>
     </row>
     <row r="262" spans="1:9">
-      <c r="A262" s="22"/>
+      <c r="A262" s="22">
+        <v>45766</v>
+      </c>
       <c r="B262" s="3" t="s">
         <v>7</v>
       </c>
@@ -13146,7 +13236,9 @@
       <c r="I262" s="19"/>
     </row>
     <row r="263" spans="1:9">
-      <c r="A263" s="22"/>
+      <c r="A263" s="22">
+        <v>45766</v>
+      </c>
       <c r="B263" s="3" t="s">
         <v>7</v>
       </c>
@@ -13169,7 +13261,9 @@
       <c r="I263" s="19"/>
     </row>
     <row r="264" spans="1:9">
-      <c r="A264" s="22"/>
+      <c r="A264" s="22">
+        <v>45766</v>
+      </c>
       <c r="B264" s="3" t="s">
         <v>7</v>
       </c>
@@ -13192,7 +13286,9 @@
       <c r="I264" s="19"/>
     </row>
     <row r="265" spans="1:9">
-      <c r="A265" s="22"/>
+      <c r="A265" s="22">
+        <v>45766</v>
+      </c>
       <c r="B265" s="3" t="s">
         <v>7</v>
       </c>
@@ -13215,7 +13311,9 @@
       <c r="I265" s="19"/>
     </row>
     <row r="266" spans="1:9">
-      <c r="A266" s="22"/>
+      <c r="A266" s="22">
+        <v>45766</v>
+      </c>
       <c r="B266" s="3" t="s">
         <v>7</v>
       </c>
@@ -13238,7 +13336,9 @@
       <c r="I266" s="19"/>
     </row>
     <row r="267" spans="1:9">
-      <c r="A267" s="22"/>
+      <c r="A267" s="22">
+        <v>45766</v>
+      </c>
       <c r="B267" s="3" t="s">
         <v>7</v>
       </c>
@@ -13261,7 +13361,9 @@
       <c r="I267" s="19"/>
     </row>
     <row r="268" spans="1:9">
-      <c r="A268" s="22"/>
+      <c r="A268" s="22">
+        <v>45766</v>
+      </c>
       <c r="B268" s="3" t="s">
         <v>7</v>
       </c>
@@ -13284,7 +13386,9 @@
       <c r="I268" s="19"/>
     </row>
     <row r="269" spans="1:9">
-      <c r="A269" s="22"/>
+      <c r="A269" s="22">
+        <v>45766</v>
+      </c>
       <c r="B269" s="3" t="s">
         <v>7</v>
       </c>
@@ -13307,7 +13411,9 @@
       <c r="I269" s="19"/>
     </row>
     <row r="270" spans="1:9">
-      <c r="A270" s="22"/>
+      <c r="A270" s="22">
+        <v>45766</v>
+      </c>
       <c r="B270" s="3" t="s">
         <v>7</v>
       </c>
@@ -13330,7 +13436,9 @@
       <c r="I270" s="19"/>
     </row>
     <row r="271" spans="1:9">
-      <c r="A271" s="22"/>
+      <c r="A271" s="22">
+        <v>45766</v>
+      </c>
       <c r="B271" s="3" t="s">
         <v>7</v>
       </c>
@@ -13353,7 +13461,9 @@
       <c r="I271" s="19"/>
     </row>
     <row r="272" spans="1:9">
-      <c r="A272" s="22"/>
+      <c r="A272" s="22">
+        <v>45766</v>
+      </c>
       <c r="B272" s="3" t="s">
         <v>7</v>
       </c>
@@ -13376,7 +13486,9 @@
       <c r="I272" s="19"/>
     </row>
     <row r="273" spans="1:9">
-      <c r="A273" s="22"/>
+      <c r="A273" s="22">
+        <v>45766</v>
+      </c>
       <c r="B273" s="3" t="s">
         <v>7</v>
       </c>
@@ -13399,7 +13511,9 @@
       <c r="I273" s="19"/>
     </row>
     <row r="274" spans="1:9">
-      <c r="A274" s="22"/>
+      <c r="A274" s="22">
+        <v>45766</v>
+      </c>
       <c r="B274" s="3" t="s">
         <v>7</v>
       </c>
@@ -13422,7 +13536,9 @@
       <c r="I274" s="19"/>
     </row>
     <row r="275" spans="1:9">
-      <c r="A275" s="22"/>
+      <c r="A275" s="22">
+        <v>45766</v>
+      </c>
       <c r="B275" s="3" t="s">
         <v>7</v>
       </c>
@@ -13445,7 +13561,9 @@
       <c r="I275" s="19"/>
     </row>
     <row r="276" spans="1:9">
-      <c r="A276" s="22"/>
+      <c r="A276" s="22">
+        <v>45766</v>
+      </c>
       <c r="B276" s="17" t="s">
         <v>157</v>
       </c>
@@ -13470,7 +13588,9 @@
       <c r="I276" s="19"/>
     </row>
     <row r="277" spans="1:9">
-      <c r="A277" s="22"/>
+      <c r="A277" s="22">
+        <v>45766</v>
+      </c>
       <c r="B277" s="17" t="s">
         <v>158</v>
       </c>
@@ -13495,7 +13615,9 @@
       <c r="I277" s="19"/>
     </row>
     <row r="278" spans="1:9">
-      <c r="A278" s="22"/>
+      <c r="A278" s="22">
+        <v>45766</v>
+      </c>
       <c r="B278" s="3" t="s">
         <v>7</v>
       </c>
@@ -13518,7 +13640,9 @@
       <c r="I278" s="19"/>
     </row>
     <row r="279" spans="1:9">
-      <c r="A279" s="22"/>
+      <c r="A279" s="22">
+        <v>45766</v>
+      </c>
       <c r="B279" s="3" t="s">
         <v>7</v>
       </c>
@@ -13541,7 +13665,9 @@
       <c r="I279" s="19"/>
     </row>
     <row r="280" spans="1:9">
-      <c r="A280" s="22"/>
+      <c r="A280" s="22">
+        <v>45766</v>
+      </c>
       <c r="B280" s="3" t="s">
         <v>7</v>
       </c>
@@ -13564,7 +13690,9 @@
       <c r="I280" s="19"/>
     </row>
     <row r="281" spans="1:9">
-      <c r="A281" s="22"/>
+      <c r="A281" s="22">
+        <v>45766</v>
+      </c>
       <c r="B281" s="3" t="s">
         <v>7</v>
       </c>
@@ -13587,7 +13715,9 @@
       <c r="I281" s="19"/>
     </row>
     <row r="282" spans="1:9">
-      <c r="A282" s="22"/>
+      <c r="A282" s="22">
+        <v>45766</v>
+      </c>
       <c r="B282" s="3" t="s">
         <v>7</v>
       </c>
@@ -13610,7 +13740,9 @@
       <c r="I282" s="19"/>
     </row>
     <row r="283" spans="1:9">
-      <c r="A283" s="22"/>
+      <c r="A283" s="22">
+        <v>45766</v>
+      </c>
       <c r="B283" s="3" t="s">
         <v>7</v>
       </c>
@@ -13633,7 +13765,9 @@
       <c r="I283" s="19"/>
     </row>
     <row r="284" spans="1:9">
-      <c r="A284" s="22"/>
+      <c r="A284" s="22">
+        <v>45766</v>
+      </c>
       <c r="B284" s="3" t="s">
         <v>7</v>
       </c>
@@ -13656,7 +13790,9 @@
       <c r="I284" s="19"/>
     </row>
     <row r="285" spans="1:9">
-      <c r="A285" s="22"/>
+      <c r="A285" s="22">
+        <v>45766</v>
+      </c>
       <c r="B285" s="3" t="s">
         <v>7</v>
       </c>
@@ -13679,7 +13815,9 @@
       <c r="I285" s="19"/>
     </row>
     <row r="286" spans="1:9">
-      <c r="A286" s="22"/>
+      <c r="A286" s="22">
+        <v>45766</v>
+      </c>
       <c r="B286" s="3" t="s">
         <v>7</v>
       </c>
@@ -13702,7 +13840,9 @@
       <c r="I286" s="19"/>
     </row>
     <row r="287" spans="1:9">
-      <c r="A287" s="22"/>
+      <c r="A287" s="22">
+        <v>45766</v>
+      </c>
       <c r="B287" s="3" t="s">
         <v>7</v>
       </c>
@@ -13725,7 +13865,9 @@
       <c r="I287" s="19"/>
     </row>
     <row r="288" spans="1:9">
-      <c r="A288" s="22"/>
+      <c r="A288" s="22">
+        <v>45766</v>
+      </c>
       <c r="B288" s="3" t="s">
         <v>7</v>
       </c>
@@ -13748,7 +13890,9 @@
       <c r="I288" s="19"/>
     </row>
     <row r="289" spans="1:9">
-      <c r="A289" s="22"/>
+      <c r="A289" s="22">
+        <v>45766</v>
+      </c>
       <c r="B289" s="3" t="s">
         <v>7</v>
       </c>
@@ -13771,7 +13915,9 @@
       <c r="I289" s="19"/>
     </row>
     <row r="290" spans="1:9">
-      <c r="A290" s="22"/>
+      <c r="A290" s="22">
+        <v>45766</v>
+      </c>
       <c r="B290" s="3" t="s">
         <v>7</v>
       </c>
@@ -13794,7 +13940,9 @@
       <c r="I290" s="19"/>
     </row>
     <row r="291" spans="1:9">
-      <c r="A291" s="22"/>
+      <c r="A291" s="22">
+        <v>45766</v>
+      </c>
       <c r="B291" s="3" t="s">
         <v>7</v>
       </c>
@@ -13817,7 +13965,9 @@
       <c r="I291" s="19"/>
     </row>
     <row r="292" spans="1:9">
-      <c r="A292" s="22"/>
+      <c r="A292" s="22">
+        <v>45766</v>
+      </c>
       <c r="B292" s="3" t="s">
         <v>7</v>
       </c>
@@ -13840,7 +13990,9 @@
       <c r="I292" s="19"/>
     </row>
     <row r="293" spans="1:9">
-      <c r="A293" s="22"/>
+      <c r="A293" s="22">
+        <v>45766</v>
+      </c>
       <c r="B293" s="3" t="s">
         <v>7</v>
       </c>
@@ -13863,7 +14015,9 @@
       <c r="I293" s="19"/>
     </row>
     <row r="294" spans="1:9">
-      <c r="A294" s="22"/>
+      <c r="A294" s="22">
+        <v>45766</v>
+      </c>
       <c r="B294" s="3" t="s">
         <v>7</v>
       </c>
@@ -13886,7 +14040,9 @@
       <c r="I294" s="19"/>
     </row>
     <row r="295" spans="1:9">
-      <c r="A295" s="22"/>
+      <c r="A295" s="22">
+        <v>45766</v>
+      </c>
       <c r="B295" s="3" t="s">
         <v>7</v>
       </c>
@@ -13909,7 +14065,9 @@
       <c r="I295" s="19"/>
     </row>
     <row r="296" spans="1:9">
-      <c r="A296" s="22"/>
+      <c r="A296" s="22">
+        <v>45766</v>
+      </c>
       <c r="B296" s="3" t="s">
         <v>7</v>
       </c>
@@ -13932,7 +14090,9 @@
       <c r="I296" s="19"/>
     </row>
     <row r="297" spans="1:9">
-      <c r="A297" s="22"/>
+      <c r="A297" s="22">
+        <v>45766</v>
+      </c>
       <c r="B297" s="3" t="s">
         <v>7</v>
       </c>
@@ -13955,7 +14115,9 @@
       <c r="I297" s="19"/>
     </row>
     <row r="298" spans="1:9">
-      <c r="A298" s="22"/>
+      <c r="A298" s="22">
+        <v>45766</v>
+      </c>
       <c r="B298" s="3" t="s">
         <v>7</v>
       </c>
@@ -13978,7 +14140,9 @@
       <c r="I298" s="19"/>
     </row>
     <row r="299" spans="1:9">
-      <c r="A299" s="22"/>
+      <c r="A299" s="22">
+        <v>45766</v>
+      </c>
       <c r="B299" s="3" t="s">
         <v>7</v>
       </c>
@@ -14001,7 +14165,9 @@
       <c r="I299" s="19"/>
     </row>
     <row r="300" spans="1:9">
-      <c r="A300" s="22"/>
+      <c r="A300" s="22">
+        <v>45766</v>
+      </c>
       <c r="B300" s="3" t="s">
         <v>7</v>
       </c>
@@ -14024,7 +14190,9 @@
       <c r="I300" s="19"/>
     </row>
     <row r="301" spans="1:9">
-      <c r="A301" s="22"/>
+      <c r="A301" s="22">
+        <v>45766</v>
+      </c>
       <c r="B301" s="3" t="s">
         <v>7</v>
       </c>
@@ -14047,7 +14215,9 @@
       <c r="I301" s="19"/>
     </row>
     <row r="302" spans="1:9">
-      <c r="A302" s="22"/>
+      <c r="A302" s="22">
+        <v>45766</v>
+      </c>
       <c r="B302" s="3" t="s">
         <v>7</v>
       </c>
@@ -14070,7 +14240,9 @@
       <c r="I302" s="19"/>
     </row>
     <row r="303" spans="1:9">
-      <c r="A303" s="22"/>
+      <c r="A303" s="22">
+        <v>45766</v>
+      </c>
       <c r="B303" s="3" t="s">
         <v>7</v>
       </c>
@@ -14093,7 +14265,9 @@
       <c r="I303" s="19"/>
     </row>
     <row r="304" spans="1:9">
-      <c r="A304" s="22"/>
+      <c r="A304" s="22">
+        <v>45766</v>
+      </c>
       <c r="B304" s="3" t="s">
         <v>7</v>
       </c>
@@ -14116,7 +14290,9 @@
       <c r="I304" s="19"/>
     </row>
     <row r="305" spans="1:9">
-      <c r="A305" s="22"/>
+      <c r="A305" s="22">
+        <v>45766</v>
+      </c>
       <c r="B305" s="3" t="s">
         <v>7</v>
       </c>
@@ -14139,7 +14315,9 @@
       <c r="I305" s="19"/>
     </row>
     <row r="306" spans="1:9">
-      <c r="A306" s="22"/>
+      <c r="A306" s="22">
+        <v>45766</v>
+      </c>
       <c r="B306" s="3" t="s">
         <v>7</v>
       </c>
@@ -14162,7 +14340,9 @@
       <c r="I306" s="19"/>
     </row>
     <row r="307" spans="1:9">
-      <c r="A307" s="22"/>
+      <c r="A307" s="22">
+        <v>45766</v>
+      </c>
       <c r="B307" s="3" t="s">
         <v>7</v>
       </c>
@@ -14185,7 +14365,9 @@
       <c r="I307" s="19"/>
     </row>
     <row r="308" spans="1:9">
-      <c r="A308" s="22"/>
+      <c r="A308" s="22">
+        <v>45766</v>
+      </c>
       <c r="B308" s="3" t="s">
         <v>7</v>
       </c>
@@ -14208,7 +14390,9 @@
       <c r="I308" s="19"/>
     </row>
     <row r="309" spans="1:9">
-      <c r="A309" s="22"/>
+      <c r="A309" s="22">
+        <v>45766</v>
+      </c>
       <c r="B309" s="3" t="s">
         <v>7</v>
       </c>
@@ -14231,7 +14415,9 @@
       <c r="I309" s="19"/>
     </row>
     <row r="310" spans="1:9">
-      <c r="A310" s="22"/>
+      <c r="A310" s="22">
+        <v>45766</v>
+      </c>
       <c r="B310" s="3" t="s">
         <v>7</v>
       </c>
@@ -14254,7 +14440,9 @@
       <c r="I310" s="19"/>
     </row>
     <row r="311" spans="1:9">
-      <c r="A311" s="22"/>
+      <c r="A311" s="22">
+        <v>45766</v>
+      </c>
       <c r="B311" s="3" t="s">
         <v>7</v>
       </c>
@@ -14277,7 +14465,9 @@
       <c r="I311" s="19"/>
     </row>
     <row r="312" spans="1:9">
-      <c r="A312" s="22"/>
+      <c r="A312" s="22">
+        <v>45766</v>
+      </c>
       <c r="B312" s="3" t="s">
         <v>7</v>
       </c>
@@ -14300,7 +14490,9 @@
       <c r="I312" s="19"/>
     </row>
     <row r="313" spans="1:9">
-      <c r="A313" s="22"/>
+      <c r="A313" s="22">
+        <v>45766</v>
+      </c>
       <c r="B313" s="3" t="s">
         <v>7</v>
       </c>
@@ -14323,7 +14515,9 @@
       <c r="I313" s="19"/>
     </row>
     <row r="314" spans="1:9">
-      <c r="A314" s="22"/>
+      <c r="A314" s="22">
+        <v>45766</v>
+      </c>
       <c r="B314" s="3" t="s">
         <v>7</v>
       </c>
@@ -14346,7 +14540,9 @@
       <c r="I314" s="19"/>
     </row>
     <row r="315" spans="1:9">
-      <c r="A315" s="22"/>
+      <c r="A315" s="22">
+        <v>45766</v>
+      </c>
       <c r="B315" s="3" t="s">
         <v>7</v>
       </c>
@@ -14369,7 +14565,9 @@
       <c r="I315" s="19"/>
     </row>
     <row r="316" spans="1:9">
-      <c r="A316" s="22"/>
+      <c r="A316" s="22">
+        <v>45766</v>
+      </c>
       <c r="B316" s="3" t="s">
         <v>7</v>
       </c>
@@ -14392,7 +14590,9 @@
       <c r="I316" s="19"/>
     </row>
     <row r="317" spans="1:9">
-      <c r="A317" s="22"/>
+      <c r="A317" s="22">
+        <v>45766</v>
+      </c>
       <c r="B317" s="3" t="s">
         <v>7</v>
       </c>
@@ -14415,7 +14615,9 @@
       <c r="I317" s="19"/>
     </row>
     <row r="318" spans="1:9">
-      <c r="A318" s="22"/>
+      <c r="A318" s="22">
+        <v>45766</v>
+      </c>
       <c r="B318" s="3" t="s">
         <v>7</v>
       </c>
@@ -14438,7 +14640,9 @@
       <c r="I318" s="19"/>
     </row>
     <row r="319" spans="1:9">
-      <c r="A319" s="22"/>
+      <c r="A319" s="22">
+        <v>45766</v>
+      </c>
       <c r="B319" s="3" t="s">
         <v>7</v>
       </c>
@@ -14461,7 +14665,9 @@
       <c r="I319" s="19"/>
     </row>
     <row r="320" spans="1:9">
-      <c r="A320" s="22"/>
+      <c r="A320" s="22">
+        <v>45766</v>
+      </c>
       <c r="B320" s="3" t="s">
         <v>7</v>
       </c>
@@ -14484,7 +14690,9 @@
       <c r="I320" s="19"/>
     </row>
     <row r="321" spans="1:9">
-      <c r="A321" s="22"/>
+      <c r="A321" s="22">
+        <v>45766</v>
+      </c>
       <c r="B321" s="3" t="s">
         <v>7</v>
       </c>
@@ -14507,7 +14715,9 @@
       <c r="I321" s="19"/>
     </row>
     <row r="322" spans="1:9">
-      <c r="A322" s="22"/>
+      <c r="A322" s="22">
+        <v>45766</v>
+      </c>
       <c r="B322" s="3" t="s">
         <v>7</v>
       </c>
@@ -14530,7 +14740,9 @@
       <c r="I322" s="19"/>
     </row>
     <row r="323" spans="1:9">
-      <c r="A323" s="22"/>
+      <c r="A323" s="22">
+        <v>45766</v>
+      </c>
       <c r="B323" s="3" t="s">
         <v>7</v>
       </c>
@@ -14553,7 +14765,9 @@
       <c r="I323" s="19"/>
     </row>
     <row r="324" spans="1:9">
-      <c r="A324" s="22"/>
+      <c r="A324" s="22">
+        <v>45766</v>
+      </c>
       <c r="B324" s="3" t="s">
         <v>7</v>
       </c>
@@ -14576,7 +14790,9 @@
       <c r="I324" s="19"/>
     </row>
     <row r="325" spans="1:9">
-      <c r="A325" s="22"/>
+      <c r="A325" s="22">
+        <v>45766</v>
+      </c>
       <c r="B325" s="3" t="s">
         <v>7</v>
       </c>
@@ -14599,7 +14815,9 @@
       <c r="I325" s="19"/>
     </row>
     <row r="326" spans="1:9">
-      <c r="A326" s="22"/>
+      <c r="A326" s="22">
+        <v>45766</v>
+      </c>
       <c r="B326" s="3" t="s">
         <v>7</v>
       </c>
@@ -14622,7 +14840,9 @@
       <c r="I326" s="19"/>
     </row>
     <row r="327" spans="1:9">
-      <c r="A327" s="22"/>
+      <c r="A327" s="22">
+        <v>45766</v>
+      </c>
       <c r="B327" s="3" t="s">
         <v>7</v>
       </c>
@@ -14645,7 +14865,9 @@
       <c r="I327" s="19"/>
     </row>
     <row r="328" spans="1:9">
-      <c r="A328" s="22"/>
+      <c r="A328" s="22">
+        <v>45766</v>
+      </c>
       <c r="B328" s="3" t="s">
         <v>7</v>
       </c>
@@ -14668,7 +14890,9 @@
       <c r="I328" s="19"/>
     </row>
     <row r="329" spans="1:9">
-      <c r="A329" s="22"/>
+      <c r="A329" s="22">
+        <v>45766</v>
+      </c>
       <c r="B329" s="3" t="s">
         <v>7</v>
       </c>
@@ -14691,7 +14915,9 @@
       <c r="I329" s="19"/>
     </row>
     <row r="330" spans="1:9">
-      <c r="A330" s="22"/>
+      <c r="A330" s="22">
+        <v>45766</v>
+      </c>
       <c r="B330" s="3" t="s">
         <v>7</v>
       </c>
@@ -14714,7 +14940,9 @@
       <c r="I330" s="19"/>
     </row>
     <row r="331" spans="1:9">
-      <c r="A331" s="22"/>
+      <c r="A331" s="22">
+        <v>45766</v>
+      </c>
       <c r="B331" s="3" t="s">
         <v>7</v>
       </c>
@@ -14737,7 +14965,9 @@
       <c r="I331" s="19"/>
     </row>
     <row r="332" spans="1:9">
-      <c r="A332" s="22"/>
+      <c r="A332" s="22">
+        <v>45766</v>
+      </c>
       <c r="B332" s="3" t="s">
         <v>7</v>
       </c>
@@ -14760,7 +14990,9 @@
       <c r="I332" s="19"/>
     </row>
     <row r="333" spans="1:9">
-      <c r="A333" s="22"/>
+      <c r="A333" s="22">
+        <v>45766</v>
+      </c>
       <c r="B333" s="3" t="s">
         <v>7</v>
       </c>
@@ -14783,7 +15015,9 @@
       <c r="I333" s="19"/>
     </row>
     <row r="334" spans="1:9">
-      <c r="A334" s="22"/>
+      <c r="A334" s="22">
+        <v>45766</v>
+      </c>
       <c r="B334" s="3" t="s">
         <v>7</v>
       </c>
@@ -14806,7 +15040,9 @@
       <c r="I334" s="19"/>
     </row>
     <row r="335" spans="1:9">
-      <c r="A335" s="22"/>
+      <c r="A335" s="22">
+        <v>45766</v>
+      </c>
       <c r="B335" s="3" t="s">
         <v>7</v>
       </c>
@@ -14829,7 +15065,9 @@
       <c r="I335" s="19"/>
     </row>
     <row r="336" spans="1:9">
-      <c r="A336" s="22"/>
+      <c r="A336" s="22">
+        <v>45766</v>
+      </c>
       <c r="B336" s="3" t="s">
         <v>7</v>
       </c>
@@ -14852,7 +15090,9 @@
       <c r="I336" s="19"/>
     </row>
     <row r="337" spans="1:9">
-      <c r="A337" s="22"/>
+      <c r="A337" s="22">
+        <v>45766</v>
+      </c>
       <c r="B337" s="3" t="s">
         <v>54</v>
       </c>
@@ -14877,7 +15117,9 @@
       <c r="I337" s="19"/>
     </row>
     <row r="338" spans="1:9">
-      <c r="A338" s="22"/>
+      <c r="A338" s="22">
+        <v>45766</v>
+      </c>
       <c r="B338" s="17" t="s">
         <v>158</v>
       </c>
@@ -14902,7 +15144,9 @@
       <c r="I338" s="19"/>
     </row>
     <row r="339" spans="1:9">
-      <c r="A339" s="22"/>
+      <c r="A339" s="22">
+        <v>45766</v>
+      </c>
       <c r="B339" s="17" t="s">
         <v>158</v>
       </c>
@@ -14927,7 +15171,9 @@
       <c r="I339" s="19"/>
     </row>
     <row r="340" spans="1:9">
-      <c r="A340" s="22"/>
+      <c r="A340" s="22">
+        <v>45766</v>
+      </c>
       <c r="B340" s="17" t="s">
         <v>158</v>
       </c>
@@ -14952,7 +15198,9 @@
       <c r="I340" s="19"/>
     </row>
     <row r="341" spans="1:9">
-      <c r="A341" s="22"/>
+      <c r="A341" s="22">
+        <v>45766</v>
+      </c>
       <c r="B341" s="17" t="s">
         <v>158</v>
       </c>
@@ -14977,7 +15225,9 @@
       <c r="I341" s="19"/>
     </row>
     <row r="342" spans="1:9">
-      <c r="A342" s="22"/>
+      <c r="A342" s="22">
+        <v>45766</v>
+      </c>
       <c r="B342" s="17" t="s">
         <v>158</v>
       </c>
@@ -15002,7 +15252,9 @@
       <c r="I342" s="19"/>
     </row>
     <row r="343" spans="1:9">
-      <c r="A343" s="22"/>
+      <c r="A343" s="22">
+        <v>45766</v>
+      </c>
       <c r="B343" s="17" t="s">
         <v>158</v>
       </c>
@@ -15027,7 +15279,9 @@
       <c r="I343" s="19"/>
     </row>
     <row r="344" spans="1:9">
-      <c r="A344" s="22"/>
+      <c r="A344" s="22">
+        <v>45766</v>
+      </c>
       <c r="B344" s="3" t="s">
         <v>7</v>
       </c>
@@ -15052,7 +15306,9 @@
       <c r="I344" s="19"/>
     </row>
     <row r="345" spans="1:9">
-      <c r="A345" s="22"/>
+      <c r="A345" s="22">
+        <v>45766</v>
+      </c>
       <c r="B345" s="3" t="s">
         <v>7</v>
       </c>
@@ -15077,7 +15333,9 @@
       <c r="I345" s="19"/>
     </row>
     <row r="346" spans="1:9">
-      <c r="A346" s="22"/>
+      <c r="A346" s="22">
+        <v>45766</v>
+      </c>
       <c r="B346" s="3" t="s">
         <v>7</v>
       </c>
@@ -15100,7 +15358,9 @@
       <c r="I346" s="19"/>
     </row>
     <row r="347" spans="1:9">
-      <c r="A347" s="22"/>
+      <c r="A347" s="22">
+        <v>45766</v>
+      </c>
       <c r="B347" s="3" t="s">
         <v>7</v>
       </c>
@@ -15123,7 +15383,9 @@
       <c r="I347" s="19"/>
     </row>
     <row r="348" spans="1:9">
-      <c r="A348" s="22"/>
+      <c r="A348" s="22">
+        <v>45766</v>
+      </c>
       <c r="B348" s="3" t="s">
         <v>7</v>
       </c>
@@ -15146,7 +15408,9 @@
       <c r="I348" s="19"/>
     </row>
     <row r="349" spans="1:9">
-      <c r="A349" s="22"/>
+      <c r="A349" s="22">
+        <v>45766</v>
+      </c>
       <c r="B349" s="3" t="s">
         <v>7</v>
       </c>
@@ -15169,7 +15433,9 @@
       <c r="I349" s="19"/>
     </row>
     <row r="350" spans="1:9">
-      <c r="A350" s="22"/>
+      <c r="A350" s="22">
+        <v>45766</v>
+      </c>
       <c r="B350" s="3" t="s">
         <v>7</v>
       </c>
@@ -15192,7 +15458,9 @@
       <c r="I350" s="19"/>
     </row>
     <row r="351" spans="1:9">
-      <c r="A351" s="22"/>
+      <c r="A351" s="22">
+        <v>45766</v>
+      </c>
       <c r="B351" s="3" t="s">
         <v>7</v>
       </c>
@@ -15215,7 +15483,9 @@
       <c r="I351" s="19"/>
     </row>
     <row r="352" spans="1:9">
-      <c r="A352" s="22"/>
+      <c r="A352" s="22">
+        <v>45766</v>
+      </c>
       <c r="B352" s="3" t="s">
         <v>7</v>
       </c>
@@ -15238,7 +15508,9 @@
       <c r="I352" s="19"/>
     </row>
     <row r="353" spans="1:9">
-      <c r="A353" s="22"/>
+      <c r="A353" s="22">
+        <v>45766</v>
+      </c>
       <c r="B353" s="3" t="s">
         <v>7</v>
       </c>
@@ -15261,7 +15533,9 @@
       <c r="I353" s="19"/>
     </row>
     <row r="354" spans="1:9">
-      <c r="A354" s="22"/>
+      <c r="A354" s="22">
+        <v>45766</v>
+      </c>
       <c r="B354" s="3" t="s">
         <v>7</v>
       </c>
@@ -15284,7 +15558,9 @@
       <c r="I354" s="19"/>
     </row>
     <row r="355" spans="1:9">
-      <c r="A355" s="22"/>
+      <c r="A355" s="22">
+        <v>45766</v>
+      </c>
       <c r="B355" s="3" t="s">
         <v>7</v>
       </c>
@@ -15307,7 +15583,9 @@
       <c r="I355" s="19"/>
     </row>
     <row r="356" spans="1:9">
-      <c r="A356" s="22"/>
+      <c r="A356" s="22">
+        <v>45766</v>
+      </c>
       <c r="B356" s="3" t="s">
         <v>7</v>
       </c>
@@ -15330,7 +15608,9 @@
       <c r="I356" s="19"/>
     </row>
     <row r="357" spans="1:9">
-      <c r="A357" s="22"/>
+      <c r="A357" s="22">
+        <v>45766</v>
+      </c>
       <c r="B357" s="3" t="s">
         <v>7</v>
       </c>
@@ -15353,7 +15633,9 @@
       <c r="I357" s="19"/>
     </row>
     <row r="358" spans="1:9">
-      <c r="A358" s="22"/>
+      <c r="A358" s="22">
+        <v>45766</v>
+      </c>
       <c r="B358" s="3" t="s">
         <v>7</v>
       </c>
@@ -15376,7 +15658,9 @@
       <c r="I358" s="19"/>
     </row>
     <row r="359" spans="1:9">
-      <c r="A359" s="22"/>
+      <c r="A359" s="22">
+        <v>45766</v>
+      </c>
       <c r="B359" s="3" t="s">
         <v>7</v>
       </c>
@@ -15399,7 +15683,9 @@
       <c r="I359" s="19"/>
     </row>
     <row r="360" spans="1:9">
-      <c r="A360" s="22"/>
+      <c r="A360" s="22">
+        <v>45766</v>
+      </c>
       <c r="B360" s="3" t="s">
         <v>7</v>
       </c>
@@ -15422,7 +15708,9 @@
       <c r="I360" s="19"/>
     </row>
     <row r="361" spans="1:9">
-      <c r="A361" s="22"/>
+      <c r="A361" s="22">
+        <v>45766</v>
+      </c>
       <c r="B361" s="3" t="s">
         <v>7</v>
       </c>
@@ -15445,7 +15733,9 @@
       <c r="I361" s="19"/>
     </row>
     <row r="362" spans="1:9">
-      <c r="A362" s="22"/>
+      <c r="A362" s="22">
+        <v>45766</v>
+      </c>
       <c r="B362" s="3" t="s">
         <v>7</v>
       </c>
@@ -15468,7 +15758,9 @@
       <c r="I362" s="19"/>
     </row>
     <row r="363" spans="1:9">
-      <c r="A363" s="22"/>
+      <c r="A363" s="22">
+        <v>45766</v>
+      </c>
       <c r="B363" s="3" t="s">
         <v>7</v>
       </c>
@@ -15491,7 +15783,9 @@
       <c r="I363" s="19"/>
     </row>
     <row r="364" spans="1:9">
-      <c r="A364" s="22"/>
+      <c r="A364" s="22">
+        <v>45766</v>
+      </c>
       <c r="B364" s="3" t="s">
         <v>7</v>
       </c>
@@ -15514,7 +15808,9 @@
       <c r="I364" s="19"/>
     </row>
     <row r="365" spans="1:9">
-      <c r="A365" s="22"/>
+      <c r="A365" s="22">
+        <v>45766</v>
+      </c>
       <c r="B365" s="3" t="s">
         <v>7</v>
       </c>
@@ -15537,7 +15833,9 @@
       <c r="I365" s="19"/>
     </row>
     <row r="366" spans="1:9">
-      <c r="A366" s="22"/>
+      <c r="A366" s="22">
+        <v>45766</v>
+      </c>
       <c r="B366" s="3" t="s">
         <v>7</v>
       </c>
@@ -15560,7 +15858,9 @@
       <c r="I366" s="19"/>
     </row>
     <row r="367" spans="1:9">
-      <c r="A367" s="22"/>
+      <c r="A367" s="22">
+        <v>45766</v>
+      </c>
       <c r="B367" s="3" t="s">
         <v>169</v>
       </c>
